--- a/Daily Activity/2024/DEC/Master Documentation Main/Reference/Master Document Assigned List.xlsx
+++ b/Daily Activity/2024/DEC/Master Documentation Main/Reference/Master Document Assigned List.xlsx
@@ -10,9 +10,6 @@
   <sheets>
     <sheet name="Masters" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Masters!$A$1:$O$113</definedName>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -1640,7 +1637,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1725,35 +1722,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1862,19 +1835,15 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ113"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M87" activeCellId="0" sqref="M87"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1944,7 +1913,7 @@
       </c>
       <c r="AMJ1" s="5"/>
     </row>
-    <row r="2" s="10" customFormat="true" ht="67.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="10" customFormat="true" ht="67.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
@@ -1990,7 +1959,7 @@
       <c r="O2" s="7"/>
       <c r="AMJ2" s="11"/>
     </row>
-    <row r="3" s="10" customFormat="true" ht="67.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="10" customFormat="true" ht="67.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
@@ -2036,7 +2005,7 @@
       <c r="O3" s="7"/>
       <c r="AMJ3" s="11"/>
     </row>
-    <row r="4" s="10" customFormat="true" ht="123.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="10" customFormat="true" ht="123.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
         <v>3</v>
       </c>
@@ -2082,7 +2051,7 @@
       <c r="O4" s="7"/>
       <c r="AMJ4" s="11"/>
     </row>
-    <row r="5" s="10" customFormat="true" ht="44.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="10" customFormat="true" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
@@ -2128,7 +2097,7 @@
       <c r="O5" s="7"/>
       <c r="AMJ5" s="11"/>
     </row>
-    <row r="6" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
@@ -2170,7 +2139,7 @@
       <c r="O6" s="7"/>
       <c r="AMJ6" s="11"/>
     </row>
-    <row r="7" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>6</v>
       </c>
@@ -2216,7 +2185,7 @@
       <c r="O7" s="7"/>
       <c r="AMJ7" s="11"/>
     </row>
-    <row r="8" s="10" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>7</v>
       </c>
@@ -2262,7 +2231,7 @@
       <c r="O8" s="7"/>
       <c r="AMJ8" s="11"/>
     </row>
-    <row r="9" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>8</v>
       </c>
@@ -2308,7 +2277,7 @@
       <c r="O9" s="7"/>
       <c r="AMJ9" s="11"/>
     </row>
-    <row r="10" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>9</v>
       </c>
@@ -2354,7 +2323,7 @@
       <c r="O10" s="7"/>
       <c r="AMJ10" s="11"/>
     </row>
-    <row r="11" s="10" customFormat="true" ht="134.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="10" customFormat="true" ht="134.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>10</v>
       </c>
@@ -2400,7 +2369,7 @@
       <c r="O11" s="7"/>
       <c r="AMJ11" s="11"/>
     </row>
-    <row r="12" s="10" customFormat="true" ht="55.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="10" customFormat="true" ht="55.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <v>11</v>
       </c>
@@ -2446,7 +2415,7 @@
       <c r="O12" s="7"/>
       <c r="AMJ12" s="11"/>
     </row>
-    <row r="13" s="10" customFormat="true" ht="44.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="10" customFormat="true" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>12</v>
       </c>
@@ -2492,7 +2461,7 @@
       <c r="O13" s="7"/>
       <c r="AMJ13" s="11"/>
     </row>
-    <row r="14" s="10" customFormat="true" ht="33.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="10" customFormat="true" ht="33.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>13</v>
       </c>
@@ -2538,7 +2507,7 @@
       <c r="O14" s="7"/>
       <c r="AMJ14" s="11"/>
     </row>
-    <row r="15" s="10" customFormat="true" ht="55.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="10" customFormat="true" ht="55.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>14</v>
       </c>
@@ -2584,7 +2553,7 @@
       <c r="O15" s="7"/>
       <c r="AMJ15" s="11"/>
     </row>
-    <row r="16" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>15</v>
       </c>
@@ -2630,7 +2599,7 @@
       <c r="O16" s="7"/>
       <c r="AMJ16" s="11"/>
     </row>
-    <row r="17" s="10" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>16</v>
       </c>
@@ -2676,7 +2645,7 @@
       <c r="O17" s="7"/>
       <c r="AMJ17" s="11"/>
     </row>
-    <row r="18" s="10" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <v>17</v>
       </c>
@@ -2722,7 +2691,7 @@
       <c r="O18" s="7"/>
       <c r="AMJ18" s="11"/>
     </row>
-    <row r="19" s="10" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>18</v>
       </c>
@@ -2768,7 +2737,7 @@
       <c r="O19" s="7"/>
       <c r="AMJ19" s="11"/>
     </row>
-    <row r="20" s="10" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <v>19</v>
       </c>
@@ -2814,7 +2783,7 @@
       <c r="O20" s="7"/>
       <c r="AMJ20" s="11"/>
     </row>
-    <row r="21" s="10" customFormat="true" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="10" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <v>20</v>
       </c>
@@ -2860,7 +2829,7 @@
       <c r="O21" s="7"/>
       <c r="AMJ21" s="11"/>
     </row>
-    <row r="22" s="10" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>21</v>
       </c>
@@ -2906,7 +2875,7 @@
       <c r="O22" s="7"/>
       <c r="AMJ22" s="11"/>
     </row>
-    <row r="23" s="10" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <v>22</v>
       </c>
@@ -2952,7 +2921,7 @@
       <c r="O23" s="7"/>
       <c r="AMJ23" s="11"/>
     </row>
-    <row r="24" s="10" customFormat="true" ht="24.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="10" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <v>23</v>
       </c>
@@ -2998,7 +2967,7 @@
       <c r="O24" s="7"/>
       <c r="AMJ24" s="11"/>
     </row>
-    <row r="25" s="10" customFormat="true" ht="24.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="10" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>24</v>
       </c>
@@ -3044,7 +3013,7 @@
       <c r="O25" s="7"/>
       <c r="AMJ25" s="11"/>
     </row>
-    <row r="26" s="10" customFormat="true" ht="24.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="10" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <v>25</v>
       </c>
@@ -3090,7 +3059,7 @@
       <c r="O26" s="7"/>
       <c r="AMJ26" s="11"/>
     </row>
-    <row r="27" s="10" customFormat="true" ht="24.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="10" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <v>26</v>
       </c>
@@ -3136,7 +3105,7 @@
       <c r="O27" s="7"/>
       <c r="AMJ27" s="11"/>
     </row>
-    <row r="28" s="10" customFormat="true" ht="46.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" s="10" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <v>27</v>
       </c>
@@ -3182,7 +3151,7 @@
       <c r="O28" s="7"/>
       <c r="AMJ28" s="11"/>
     </row>
-    <row r="29" s="10" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>28</v>
       </c>
@@ -3226,7 +3195,7 @@
       </c>
       <c r="AMJ29" s="11"/>
     </row>
-    <row r="30" s="10" customFormat="true" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="10" customFormat="true" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <v>29</v>
       </c>
@@ -3272,7 +3241,7 @@
       <c r="O30" s="7"/>
       <c r="AMJ30" s="11"/>
     </row>
-    <row r="31" s="10" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
         <v>30</v>
       </c>
@@ -3318,7 +3287,7 @@
       <c r="O31" s="7"/>
       <c r="AMJ31" s="11"/>
     </row>
-    <row r="32" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <v>31</v>
       </c>
@@ -3362,7 +3331,7 @@
       </c>
       <c r="AMJ32" s="11"/>
     </row>
-    <row r="33" s="10" customFormat="true" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" s="10" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <v>32</v>
       </c>
@@ -3408,7 +3377,7 @@
       <c r="O33" s="7"/>
       <c r="AMJ33" s="11"/>
     </row>
-    <row r="34" s="10" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <v>33</v>
       </c>
@@ -3454,7 +3423,7 @@
       <c r="O34" s="7"/>
       <c r="AMJ34" s="11"/>
     </row>
-    <row r="35" s="10" customFormat="true" ht="44.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" s="10" customFormat="true" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
         <v>34</v>
       </c>
@@ -3498,7 +3467,7 @@
       </c>
       <c r="AMJ35" s="11"/>
     </row>
-    <row r="36" s="10" customFormat="true" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" s="10" customFormat="true" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
         <v>35</v>
       </c>
@@ -3544,7 +3513,7 @@
       <c r="O36" s="7"/>
       <c r="AMJ36" s="11"/>
     </row>
-    <row r="37" s="10" customFormat="true" ht="78.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" s="10" customFormat="true" ht="78.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
         <v>36</v>
       </c>
@@ -3588,7 +3557,7 @@
       </c>
       <c r="AMJ37" s="11"/>
     </row>
-    <row r="38" s="10" customFormat="true" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" s="10" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <v>37</v>
       </c>
@@ -3634,7 +3603,7 @@
       <c r="O38" s="7"/>
       <c r="AMJ38" s="11"/>
     </row>
-    <row r="39" s="10" customFormat="true" ht="67.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" s="10" customFormat="true" ht="67.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
         <v>38</v>
       </c>
@@ -3678,7 +3647,7 @@
       </c>
       <c r="AMJ39" s="11"/>
     </row>
-    <row r="40" s="10" customFormat="true" ht="33.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" s="10" customFormat="true" ht="33.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
         <v>39</v>
       </c>
@@ -3722,7 +3691,7 @@
       </c>
       <c r="AMJ40" s="11"/>
     </row>
-    <row r="41" s="10" customFormat="true" ht="44.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" s="10" customFormat="true" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
         <v>40</v>
       </c>
@@ -3766,7 +3735,7 @@
       </c>
       <c r="AMJ41" s="11"/>
     </row>
-    <row r="42" s="10" customFormat="true" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" s="10" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
         <v>41</v>
       </c>
@@ -3812,7 +3781,7 @@
       <c r="O42" s="7"/>
       <c r="AMJ42" s="11"/>
     </row>
-    <row r="43" s="10" customFormat="true" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" s="10" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
         <v>42</v>
       </c>
@@ -3858,7 +3827,7 @@
       <c r="O43" s="7"/>
       <c r="AMJ43" s="11"/>
     </row>
-    <row r="44" s="10" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
         <v>43</v>
       </c>
@@ -3904,7 +3873,7 @@
       <c r="O44" s="7"/>
       <c r="AMJ44" s="11"/>
     </row>
-    <row r="45" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
         <v>44</v>
       </c>
@@ -3948,7 +3917,7 @@
       </c>
       <c r="AMJ45" s="11"/>
     </row>
-    <row r="46" s="10" customFormat="true" ht="100.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" s="10" customFormat="true" ht="100.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>45</v>
       </c>
@@ -3992,7 +3961,7 @@
       </c>
       <c r="AMJ46" s="11"/>
     </row>
-    <row r="47" s="10" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>46</v>
       </c>
@@ -4038,7 +4007,7 @@
       <c r="O47" s="7"/>
       <c r="AMJ47" s="11"/>
     </row>
-    <row r="48" s="10" customFormat="true" ht="57.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" s="10" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <v>47</v>
       </c>
@@ -4084,7 +4053,7 @@
       <c r="O48" s="7"/>
       <c r="AMJ48" s="11"/>
     </row>
-    <row r="49" s="10" customFormat="true" ht="55.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="10" customFormat="true" ht="55.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <v>48</v>
       </c>
@@ -4126,7 +4095,7 @@
       <c r="O49" s="7"/>
       <c r="AMJ49" s="11"/>
     </row>
-    <row r="50" s="10" customFormat="true" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" s="10" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
         <v>49</v>
       </c>
@@ -4172,7 +4141,7 @@
       <c r="O50" s="7"/>
       <c r="AMJ50" s="11"/>
     </row>
-    <row r="51" s="10" customFormat="true" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" s="10" customFormat="true" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
         <v>50</v>
       </c>
@@ -4218,7 +4187,7 @@
       <c r="O51" s="7"/>
       <c r="AMJ51" s="11"/>
     </row>
-    <row r="52" s="10" customFormat="true" ht="89.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" s="10" customFormat="true" ht="89.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
         <v>51</v>
       </c>
@@ -4262,7 +4231,7 @@
       </c>
       <c r="AMJ52" s="11"/>
     </row>
-    <row r="53" s="10" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>52</v>
       </c>
@@ -4310,7 +4279,7 @@
       </c>
       <c r="AMJ53" s="11"/>
     </row>
-    <row r="54" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>53</v>
       </c>
@@ -4354,7 +4323,7 @@
       </c>
       <c r="AMJ54" s="11"/>
     </row>
-    <row r="55" s="10" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>54</v>
       </c>
@@ -4402,7 +4371,7 @@
       </c>
       <c r="AMJ55" s="11"/>
     </row>
-    <row r="56" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>55</v>
       </c>
@@ -4444,7 +4413,7 @@
       <c r="O56" s="7"/>
       <c r="AMJ56" s="11"/>
     </row>
-    <row r="57" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>56</v>
       </c>
@@ -4486,7 +4455,7 @@
       <c r="O57" s="7"/>
       <c r="AMJ57" s="11"/>
     </row>
-    <row r="58" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <v>57</v>
       </c>
@@ -4532,7 +4501,7 @@
       <c r="O58" s="7"/>
       <c r="AMJ58" s="11"/>
     </row>
-    <row r="59" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
         <v>58</v>
       </c>
@@ -4578,7 +4547,7 @@
       <c r="O59" s="7"/>
       <c r="AMJ59" s="11"/>
     </row>
-    <row r="60" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
         <v>59</v>
       </c>
@@ -4624,7 +4593,7 @@
       <c r="O60" s="7"/>
       <c r="AMJ60" s="11"/>
     </row>
-    <row r="61" s="10" customFormat="true" ht="157.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" s="10" customFormat="true" ht="157.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
         <v>60</v>
       </c>
@@ -4670,7 +4639,7 @@
       <c r="O61" s="7"/>
       <c r="AMJ61" s="11"/>
     </row>
-    <row r="62" s="10" customFormat="true" ht="55.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" s="10" customFormat="true" ht="55.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
         <v>61</v>
       </c>
@@ -4716,7 +4685,7 @@
       <c r="O62" s="7"/>
       <c r="AMJ62" s="11"/>
     </row>
-    <row r="63" s="10" customFormat="true" ht="44.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" s="10" customFormat="true" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <v>62</v>
       </c>
@@ -4762,7 +4731,7 @@
       <c r="O63" s="7"/>
       <c r="AMJ63" s="11"/>
     </row>
-    <row r="64" s="10" customFormat="true" ht="89.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" s="10" customFormat="true" ht="89.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
         <v>63</v>
       </c>
@@ -4808,7 +4777,7 @@
       <c r="O64" s="7"/>
       <c r="AMJ64" s="11"/>
     </row>
-    <row r="65" s="10" customFormat="true" ht="33.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" s="10" customFormat="true" ht="33.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
         <v>64</v>
       </c>
@@ -4854,7 +4823,7 @@
       <c r="O65" s="7"/>
       <c r="AMJ65" s="11"/>
     </row>
-    <row r="66" s="10" customFormat="true" ht="28.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" s="10" customFormat="true" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
         <v>65</v>
       </c>
@@ -4900,7 +4869,7 @@
       <c r="O66" s="7"/>
       <c r="AMJ66" s="11"/>
     </row>
-    <row r="67" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
         <v>66</v>
       </c>
@@ -4946,7 +4915,7 @@
       <c r="O67" s="7"/>
       <c r="AMJ67" s="11"/>
     </row>
-    <row r="68" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
         <v>67</v>
       </c>
@@ -4992,7 +4961,7 @@
       <c r="O68" s="7"/>
       <c r="AMJ68" s="11"/>
     </row>
-    <row r="69" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
         <v>68</v>
       </c>
@@ -5038,7 +5007,7 @@
       <c r="O69" s="7"/>
       <c r="AMJ69" s="11"/>
     </row>
-    <row r="70" s="10" customFormat="true" ht="78.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" s="10" customFormat="true" ht="78.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
         <v>69</v>
       </c>
@@ -5084,7 +5053,7 @@
       <c r="O70" s="7"/>
       <c r="AMJ70" s="11"/>
     </row>
-    <row r="71" s="10" customFormat="true" ht="67.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" s="10" customFormat="true" ht="67.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
         <v>70</v>
       </c>
@@ -5130,7 +5099,7 @@
       <c r="O71" s="7"/>
       <c r="AMJ71" s="11"/>
     </row>
-    <row r="72" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
         <v>71</v>
       </c>
@@ -5168,7 +5137,7 @@
       <c r="O72" s="7"/>
       <c r="AMJ72" s="11"/>
     </row>
-    <row r="73" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
         <v>72</v>
       </c>
@@ -5206,7 +5175,7 @@
       <c r="O73" s="7"/>
       <c r="AMJ73" s="11"/>
     </row>
-    <row r="74" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
         <v>73</v>
       </c>
@@ -5252,7 +5221,7 @@
       <c r="O74" s="7"/>
       <c r="AMJ74" s="11"/>
     </row>
-    <row r="75" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
         <v>74</v>
       </c>
@@ -5298,7 +5267,7 @@
       <c r="O75" s="7"/>
       <c r="AMJ75" s="11"/>
     </row>
-    <row r="76" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
         <v>75</v>
       </c>
@@ -5344,7 +5313,7 @@
       <c r="O76" s="7"/>
       <c r="AMJ76" s="11"/>
     </row>
-    <row r="77" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
         <v>76</v>
       </c>
@@ -5390,7 +5359,7 @@
       <c r="O77" s="7"/>
       <c r="AMJ77" s="11"/>
     </row>
-    <row r="78" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
         <v>77</v>
       </c>
@@ -5436,7 +5405,7 @@
       <c r="O78" s="7"/>
       <c r="AMJ78" s="11"/>
     </row>
-    <row r="79" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
         <v>78</v>
       </c>
@@ -5482,7 +5451,7 @@
       <c r="O79" s="7"/>
       <c r="AMJ79" s="11"/>
     </row>
-    <row r="80" s="10" customFormat="true" ht="33.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" s="10" customFormat="true" ht="33.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="n">
         <v>79</v>
       </c>
@@ -5528,7 +5497,7 @@
       <c r="O80" s="7"/>
       <c r="AMJ80" s="11"/>
     </row>
-    <row r="81" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="n">
         <v>80</v>
       </c>
@@ -5572,7 +5541,7 @@
       </c>
       <c r="AMJ81" s="11"/>
     </row>
-    <row r="82" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="n">
         <v>81</v>
       </c>
@@ -5616,7 +5585,7 @@
       </c>
       <c r="AMJ82" s="11"/>
     </row>
-    <row r="83" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="n">
         <v>82</v>
       </c>
@@ -5660,7 +5629,7 @@
       </c>
       <c r="AMJ83" s="11"/>
     </row>
-    <row r="84" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="n">
         <v>83</v>
       </c>
@@ -5704,7 +5673,7 @@
       </c>
       <c r="AMJ84" s="11"/>
     </row>
-    <row r="85" s="10" customFormat="true" ht="23.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" s="10" customFormat="true" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="n">
         <v>84</v>
       </c>
@@ -5748,7 +5717,7 @@
       </c>
       <c r="AMJ85" s="11"/>
     </row>
-    <row r="86" s="10" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="n">
         <v>85</v>
       </c>
@@ -5838,7 +5807,7 @@
       </c>
       <c r="AMJ87" s="11"/>
     </row>
-    <row r="88" s="10" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="n">
         <v>87</v>
       </c>
@@ -5884,7 +5853,7 @@
       <c r="O88" s="7"/>
       <c r="AMJ88" s="11"/>
     </row>
-    <row r="89" s="10" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="n">
         <v>88</v>
       </c>
@@ -5930,7 +5899,7 @@
       <c r="O89" s="7"/>
       <c r="AMJ89" s="11"/>
     </row>
-    <row r="90" s="10" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="n">
         <v>89</v>
       </c>
@@ -5974,7 +5943,7 @@
       <c r="O90" s="7"/>
       <c r="AMJ90" s="11"/>
     </row>
-    <row r="91" s="10" customFormat="true" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" s="10" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="n">
         <v>90</v>
       </c>
@@ -6020,7 +5989,7 @@
       <c r="O91" s="7"/>
       <c r="AMJ91" s="11"/>
     </row>
-    <row r="92" s="10" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="n">
         <v>91</v>
       </c>
@@ -6066,7 +6035,7 @@
       <c r="O92" s="7"/>
       <c r="AMJ92" s="11"/>
     </row>
-    <row r="93" s="10" customFormat="true" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" s="10" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="n">
         <v>92</v>
       </c>
@@ -6112,7 +6081,7 @@
       <c r="O93" s="7"/>
       <c r="AMJ93" s="11"/>
     </row>
-    <row r="94" s="10" customFormat="true" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" s="10" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="n">
         <v>93</v>
       </c>
@@ -6158,7 +6127,7 @@
       <c r="O94" s="7"/>
       <c r="AMJ94" s="11"/>
     </row>
-    <row r="95" s="10" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="n">
         <v>94</v>
       </c>
@@ -6204,7 +6173,7 @@
       <c r="O95" s="7"/>
       <c r="AMJ95" s="11"/>
     </row>
-    <row r="96" s="10" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="n">
         <v>95</v>
       </c>
@@ -6250,7 +6219,7 @@
       <c r="O96" s="7"/>
       <c r="AMJ96" s="11"/>
     </row>
-    <row r="97" s="10" customFormat="true" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" s="10" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="n">
         <v>96</v>
       </c>
@@ -6340,7 +6309,7 @@
       </c>
       <c r="AMJ98" s="11"/>
     </row>
-    <row r="99" s="10" customFormat="true" ht="57.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" s="10" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="n">
         <v>98</v>
       </c>
@@ -6386,7 +6355,7 @@
       <c r="O99" s="7"/>
       <c r="AMJ99" s="11"/>
     </row>
-    <row r="100" s="10" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="n">
         <v>99</v>
       </c>
@@ -6432,7 +6401,7 @@
       <c r="O100" s="7"/>
       <c r="AMJ100" s="11"/>
     </row>
-    <row r="101" s="10" customFormat="true" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" s="10" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="n">
         <v>100</v>
       </c>
@@ -6566,7 +6535,7 @@
       </c>
       <c r="AMJ103" s="11"/>
     </row>
-    <row r="104" s="10" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="n">
         <v>103</v>
       </c>
@@ -6612,7 +6581,7 @@
       <c r="O104" s="7"/>
       <c r="AMJ104" s="11"/>
     </row>
-    <row r="105" s="10" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="n">
         <v>104</v>
       </c>
@@ -6658,7 +6627,7 @@
       <c r="O105" s="7"/>
       <c r="AMJ105" s="11"/>
     </row>
-    <row r="106" s="10" customFormat="true" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" s="10" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="n">
         <v>105</v>
       </c>
@@ -6792,7 +6761,7 @@
       </c>
       <c r="AMJ108" s="11"/>
     </row>
-    <row r="109" s="10" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="n">
         <v>108</v>
       </c>
@@ -6838,7 +6807,7 @@
       <c r="O109" s="7"/>
       <c r="AMJ109" s="11"/>
     </row>
-    <row r="110" s="10" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="n">
         <v>109</v>
       </c>
@@ -6928,97 +6897,87 @@
       </c>
       <c r="AMJ111" s="11"/>
     </row>
-    <row r="112" s="26" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="21" t="n">
+    <row r="112" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="6" t="n">
         <v>111</v>
       </c>
-      <c r="B112" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C112" s="22" t="s">
+      <c r="B112" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="D112" s="22" t="s">
+      <c r="D112" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="E112" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F112" s="23"/>
-      <c r="G112" s="23"/>
-      <c r="H112" s="23"/>
-      <c r="I112" s="22" t="s">
+      <c r="E112" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112" s="22"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="22"/>
+      <c r="I112" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="J112" s="22" t="s">
+      <c r="J112" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="K112" s="22" t="s">
+      <c r="K112" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="L112" s="24" t="s">
+      <c r="L112" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="M112" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="N112" s="25" t="n">
+      <c r="M112" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N112" s="15" t="n">
         <v>45642</v>
       </c>
-      <c r="O112" s="24"/>
-      <c r="AMJ112" s="27"/>
-    </row>
-    <row r="113" s="26" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="21" t="n">
+      <c r="O112" s="7"/>
+      <c r="AMJ112" s="11"/>
+    </row>
+    <row r="113" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="6" t="n">
         <v>112</v>
       </c>
-      <c r="B113" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C113" s="28" t="s">
+      <c r="B113" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="D113" s="28" t="s">
+      <c r="D113" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="E113" s="28" t="s">
+      <c r="E113" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F113" s="23"/>
-      <c r="G113" s="23"/>
-      <c r="H113" s="23"/>
-      <c r="I113" s="22" t="s">
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="J113" s="22" t="s">
+      <c r="J113" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="K113" s="28" t="s">
+      <c r="K113" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="L113" s="24" t="s">
+      <c r="L113" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="M113" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="N113" s="25" t="n">
+      <c r="M113" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N113" s="15" t="n">
         <v>45642</v>
       </c>
-      <c r="O113" s="24"/>
-      <c r="AMJ113" s="27"/>
+      <c r="O113" s="7"/>
+      <c r="AMJ113" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O113">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="Santhosh"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="12">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7026,6 +6985,5 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Daily Activity/2024/DEC/Master Documentation Main/Reference/Master Document Assigned List.xlsx
+++ b/Daily Activity/2024/DEC/Master Documentation Main/Reference/Master Document Assigned List.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Masters" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Inventory" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="393">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -1475,6 +1476,114 @@
   <si>
     <t xml:space="preserve">Manage Item List</t>
   </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVICE REQUEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ/ROW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVICE BUNDLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assigned To</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHYSICAL INVENTORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVENTORY MANAGEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHYSICAL INVENTORY AUTHORIZATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHYSICAL INVENTORY -GIFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHYSICAL INVENTORY GIFT AUTHORIZATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERNAL MOVE CONFIRMATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SURYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVE CONFIRMATION (VAS,METRO,BORROW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERNAL TRANSFER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERNAL TRANSFER -GIFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECEVING BRANCH TRANSFER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VINESH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECEVING BRANCH TRANSFER -GIFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SENDING BRANCH TRANSFER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SENDING BRANCH TRANSFER -GIFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRANCH TRANSFER CONFIRMATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNMENT ORDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRAVEEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METRO TRANSFER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERNAL TRANSFER INVOICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANAGE MANIFEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANAGE TALLY SHEET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTHOSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TALLY SHEET CONFIRMATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOCKTAKE ADJUSTMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOCKTAKE ADJUSTMENT AUTHORIZATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNPACK</t>
+  </si>
 </sst>
 </file>
 
@@ -1484,7 +1593,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1567,8 +1676,29 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="CALIBRI"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1579,6 +1709,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF2E7D32"/>
         <bgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD5B5"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1637,7 +1773,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1730,6 +1866,34 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1741,37 +1905,6 @@
     <cellStyle name="Pivot Table Category" xfId="20"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="21"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF2E7D32"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF7F7F7"/>
-          <bgColor rgb="FF272727"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1813,7 +1946,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFCD5B5"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1842,7 +1975,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -6986,4 +7119,471 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ24"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="38.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="30.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="23" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="25" customFormat="true" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="F3" s="26"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="26" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="26" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="26" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="26" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="26" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="26" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="26" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="26" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="F17" s="26"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="26" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="26" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="26" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="26" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="26" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="26" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="F24" s="26"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>